--- a/src/main/webapp/resources/examples/EmpyLineFormat.xlsx
+++ b/src/main/webapp/resources/examples/EmpyLineFormat.xlsx
@@ -22,63 +22,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">Company name 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http//www.site1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email@1.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">+123 456789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Company name 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Company name 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http//www.site2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email@2.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email@3.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email@4.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email@5.com </t>
+  </si>
   <si>
     <t xml:space="preserve">Company</t>
   </si>
   <si>
-    <t xml:space="preserve">Site</t>
+    <t xml:space="preserve">Country</t>
   </si>
   <si>
     <t xml:space="preserve">E-mail</t>
   </si>
   <si>
     <t xml:space="preserve">Tel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company name 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http//www.site1.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email@1.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">+123 456789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company name 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company name 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http//www.site2.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email@2.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email@3.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email@4.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email@5.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country</t>
   </si>
   <si>
     <t xml:space="preserve">+</t>
@@ -91,7 +85,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -118,13 +112,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -148,18 +135,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE7F5"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -196,7 +177,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -209,35 +190,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -250,66 +227,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCFE7F5"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -318,151 +235,155 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3214285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
-      <c r="C6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
-      <c r="C7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="F10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="Email@2.com "/>
-    <hyperlink ref="C6" r:id="rId2" display="Email@3.com "/>
-    <hyperlink ref="C7" r:id="rId3" display="Email@4.com "/>
+    <hyperlink ref="C4" r:id="rId1" display="Email@2.com "/>
+    <hyperlink ref="C5" r:id="rId2" display="Email@3.com "/>
+    <hyperlink ref="C6" r:id="rId3" display="Email@4.com "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -482,33 +403,34 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A8:E8 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -530,10 +452,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A8:E8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
